--- a/2021-04-12to04-16 (A5) C53517 SoftMARS/BASEfiles/60_07v01_BASE_QuestionsAndModel.xlsx
+++ b/2021-04-12to04-16 (A5) C53517 SoftMARS/BASEfiles/60_07v01_BASE_QuestionsAndModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2021-02-20to02-26 (A5) C54321 ShortName\BASEfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-04-12to04-16 (A5) C53517 SoftMARS\BASEfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78C5637-A8B6-48DF-9035-BBD00C5A8D62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DE7AD2-B5A6-43D2-9143-0DBF30452A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp" sheetId="34" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1999" uniqueCount="1001">
   <si>
     <t>CAR 3.2</t>
   </si>
@@ -1647,26 +1647,6 @@
     <t>Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">High level deisng, overall archictural. Business. Tehcnilogy. Desing for ufnciotnal requriemetns. Business andd tech … When they condct the hl desing. Interface, database structure.
-Logical relationship. Asset library. Use some tool to desing internfac.e DB desing. Assumption. At the end 2 hihg levle, 2nd detail desing. COnduct review. CHeck requreimetns.
-</t>
-  </si>
-  <si>
-    <t>According to their detail design and code standards. Coding walkthrough and unit testing. They will do prodcute.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They will have user manual, instllation manual. Write in detail guideline. </t>
-  </si>
-  <si>
-    <t>Criteria. They have expert judment. How the security. Easier to use. How many users.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the beginning of design. Consider some componetns to reuse, some product in the mareket. </t>
-  </si>
-  <si>
-    <t>Use formal dar process.</t>
-  </si>
-  <si>
     <t>PCM 2.1</t>
   </si>
   <si>
@@ -1760,15 +1740,6 @@
   </si>
   <si>
     <t>- Collect "available" data and distribute performance reprots.</t>
-  </si>
-  <si>
-    <t>We use SVN subversion tool. We also use a bit of GIT</t>
-  </si>
-  <si>
-    <t>Lot of work products. According to the configuraiton list form the PM.</t>
-  </si>
-  <si>
-    <t>Planning baseline, release baseline. Product basline.</t>
   </si>
   <si>
     <t>Provide sufficient resources, funding, and training for developing and performing processes. 
@@ -6280,7 +6251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FC1AB0-BBC6-4355-81DF-3C9527E2CFC7}">
   <dimension ref="A2:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
@@ -6293,48 +6264,48 @@
   <sheetData>
     <row r="2" spans="1:22" ht="93">
       <c r="A2" s="115" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D2" s="113"/>
       <c r="E2" s="114" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="F2" s="114"/>
       <c r="G2" s="113" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
       <c r="K2" s="114" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
       <c r="N2" s="61" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="P2" s="113" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="Q2" s="113"/>
       <c r="R2" s="113"/>
       <c r="S2" s="114" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="T2" s="114"/>
       <c r="U2" s="114"/>
       <c r="V2" s="63" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.5">
@@ -6403,70 +6374,70 @@
     </row>
     <row r="4" spans="1:22" ht="15.5">
       <c r="A4" s="112" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="V4" s="69" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.5">
@@ -6475,61 +6446,61 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V5" s="69" t="s">
         <v>23</v>
@@ -6546,29 +6517,29 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="69" t="s">
@@ -6589,7 +6560,7 @@
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -6641,61 +6612,61 @@
         <v>5</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="V9" s="69"/>
     </row>
@@ -6705,61 +6676,61 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V10" s="69" t="s">
         <v>23</v>
@@ -6771,61 +6742,61 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V11" s="69" t="s">
         <v>23</v>
@@ -6837,51 +6808,51 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S12" s="70"/>
       <c r="T12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V12" s="69" t="s">
         <v>20</v>
@@ -6893,43 +6864,43 @@
         <v>2.4</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
       <c r="P13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V13" s="69" t="s">
         <v>21</v>
@@ -6944,32 +6915,32 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
       <c r="T14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V14" s="69"/>
     </row>
@@ -6982,30 +6953,30 @@
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
       <c r="M15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V15" s="69"/>
     </row>
@@ -7029,7 +7000,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
@@ -7057,7 +7028,7 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
@@ -7073,58 +7044,58 @@
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U18" s="70"/>
       <c r="V18" s="69"/>
@@ -7135,58 +7106,58 @@
         <v>3.1</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U19" s="70"/>
       <c r="V19" s="69" t="s">
@@ -7199,49 +7170,49 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
       <c r="J20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
@@ -7256,44 +7227,44 @@
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
       <c r="J21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R21" s="70"/>
       <c r="S21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
@@ -7307,39 +7278,39 @@
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
       <c r="J22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R22" s="70"/>
       <c r="S22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
@@ -7353,35 +7324,35 @@
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
@@ -7395,27 +7366,27 @@
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
       <c r="E24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
@@ -7438,11 +7409,11 @@
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -7457,13 +7428,13 @@
     </row>
     <row r="26" spans="1:22" ht="15.5">
       <c r="A26" s="112" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
@@ -7473,21 +7444,21 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
       <c r="K26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R26" s="70"/>
       <c r="S26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
@@ -7499,7 +7470,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -7509,21 +7480,21 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
       <c r="K27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R27" s="70"/>
       <c r="S27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
@@ -7547,7 +7518,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
@@ -7555,7 +7526,7 @@
       <c r="Q28" s="70"/>
       <c r="R28" s="70"/>
       <c r="S28" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
@@ -7577,7 +7548,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
@@ -7605,7 +7576,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
@@ -7633,7 +7604,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
@@ -7663,7 +7634,7 @@
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
       <c r="M32" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
@@ -7671,7 +7642,7 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T32" s="70"/>
       <c r="U32" s="70"/>
@@ -7693,7 +7664,7 @@
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N33" s="70"/>
       <c r="O33" s="70"/>
@@ -7701,7 +7672,7 @@
       <c r="Q33" s="70"/>
       <c r="R33" s="70"/>
       <c r="S33" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T33" s="70"/>
       <c r="U33" s="70"/>
@@ -7723,7 +7694,7 @@
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
@@ -7751,7 +7722,7 @@
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
@@ -7926,7 +7897,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -8102,10 +8073,10 @@
     </row>
     <row r="10" spans="1:23" s="9" customFormat="1" ht="39">
       <c r="A10" s="22" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>368</v>
@@ -8114,7 +8085,7 @@
         <v>369</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -8148,10 +8119,10 @@
     </row>
     <row r="12" spans="1:23" s="19" customFormat="1" ht="91">
       <c r="A12" s="22" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>370</v>
@@ -8160,7 +8131,7 @@
         <v>371</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -8183,10 +8154,10 @@
     </row>
     <row r="13" spans="1:23" s="20" customFormat="1" ht="78">
       <c r="A13" s="22" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>372</v>
@@ -8195,7 +8166,7 @@
         <v>373</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -8218,10 +8189,10 @@
     </row>
     <row r="14" spans="1:23" s="9" customFormat="1" ht="91">
       <c r="A14" s="22" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>374</v>
@@ -8230,17 +8201,17 @@
         <v>375</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:23" s="9" customFormat="1" ht="26">
       <c r="A15" s="22" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>376</v>
@@ -8249,7 +8220,7 @@
         <v>377</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -8283,10 +8254,10 @@
     </row>
     <row r="17" spans="1:23" s="19" customFormat="1" ht="52">
       <c r="A17" s="22" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>378</v>
@@ -8295,7 +8266,7 @@
         <v>379</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -9221,7 +9192,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -9394,16 +9365,16 @@
         <v>75</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>380</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -9413,7 +9384,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>381</v>
@@ -9422,7 +9393,7 @@
         <v>382</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
@@ -9473,14 +9444,14 @@
         <v>77</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -9490,14 +9461,14 @@
         <v>78</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>383</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -9507,7 +9478,7 @@
         <v>79</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>384</v>
@@ -9516,7 +9487,7 @@
         <v>385</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -9541,7 +9512,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>386</v>
@@ -9550,7 +9521,7 @@
         <v>387</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -9575,7 +9546,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>388</v>
@@ -9584,7 +9555,7 @@
         <v>389</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -9594,7 +9565,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>390</v>
@@ -9603,7 +9574,7 @@
         <v>391</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
@@ -9624,14 +9595,14 @@
         <v>83</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="23" t="s">
         <v>392</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -9656,14 +9627,14 @@
         <v>84</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="23" t="s">
         <v>397</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -9688,14 +9659,14 @@
         <v>85</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23" t="s">
         <v>398</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -9705,14 +9676,14 @@
         <v>86</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="23" t="s">
         <v>399</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -9722,14 +9693,14 @@
         <v>87</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="C24" s="22"/>
       <c r="D24" s="23" t="s">
         <v>400</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -9754,14 +9725,14 @@
         <v>88</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C25" s="22"/>
       <c r="D25" s="23" t="s">
         <v>393</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -9797,14 +9768,14 @@
         <v>89</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="23" t="s">
         <v>394</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -9814,14 +9785,14 @@
         <v>90</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="23" t="s">
         <v>395</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -9846,14 +9817,14 @@
         <v>91</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="C29" s="22"/>
       <c r="D29" s="23" t="s">
         <v>396</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -9878,14 +9849,14 @@
         <v>92</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="23" t="s">
         <v>401</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -9910,14 +9881,14 @@
         <v>93</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="C31" s="22"/>
       <c r="D31" s="23" t="s">
         <v>402</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -9953,14 +9924,14 @@
         <v>94</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="23" t="s">
         <v>403</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -9985,14 +9956,14 @@
         <v>95</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="C34" s="22"/>
       <c r="D34" s="23" t="s">
         <v>404</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
@@ -10017,14 +9988,14 @@
         <v>96</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="23" t="s">
         <v>405</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
@@ -10059,7 +10030,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -10140,14 +10111,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23" t="s">
         <v>406</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -10168,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>408</v>
@@ -10177,7 +10148,7 @@
         <v>407</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -10187,7 +10158,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>409</v>
@@ -10196,7 +10167,7 @@
         <v>410</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -10217,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>412</v>
@@ -10226,7 +10197,7 @@
         <v>411</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -10236,7 +10207,7 @@
         <v>0</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>413</v>
@@ -10245,7 +10216,7 @@
         <v>414</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -10255,7 +10226,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>416</v>
@@ -10264,7 +10235,7 @@
         <v>415</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -10274,7 +10245,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>417</v>
@@ -10283,7 +10254,7 @@
         <v>418</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
@@ -10293,7 +10264,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>419</v>
@@ -10302,7 +10273,7 @@
         <v>420</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -10323,7 +10294,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>422</v>
@@ -10332,7 +10303,7 @@
         <v>421</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="22"/>
@@ -10342,7 +10313,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>424</v>
@@ -10351,7 +10322,7 @@
         <v>423</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="22"/>
@@ -10372,7 +10343,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>426</v>
@@ -10381,7 +10352,7 @@
         <v>425</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
@@ -10492,7 +10463,7 @@
   <sheetData>
     <row r="1" spans="1:33" s="13" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -10842,16 +10813,16 @@
         <v>147</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -10898,14 +10869,14 @@
         <v>148</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -10941,14 +10912,14 @@
         <v>149</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -10984,14 +10955,14 @@
         <v>150</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -11038,14 +11009,14 @@
         <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="23" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -11081,14 +11052,14 @@
         <v>152</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="23" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -11124,16 +11095,16 @@
         <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -11169,12 +11140,12 @@
         <v>154</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -11184,12 +11155,12 @@
         <v>155</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -11225,12 +11196,12 @@
         <v>156</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -11266,12 +11237,12 @@
         <v>157</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
@@ -11323,7 +11294,7 @@
       <pane xSplit="2" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:K1048576"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -11344,7 +11315,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -11560,7 +11531,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>440</v>
@@ -11569,7 +11540,7 @@
         <v>444</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -11614,7 +11585,7 @@
         <v>54</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>441</v>
@@ -11623,7 +11594,7 @@
         <v>448</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -11644,7 +11615,7 @@
         <v>55</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>442</v>
@@ -11653,7 +11624,7 @@
         <v>443</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -11674,7 +11645,7 @@
         <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>449</v>
@@ -11683,7 +11654,7 @@
         <v>445</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -11728,14 +11699,14 @@
         <v>57</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="21" t="s">
         <v>446</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -11756,7 +11727,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>450</v>
@@ -11765,7 +11736,7 @@
         <v>447</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -12453,7 +12424,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -12471,7 +12442,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -12568,7 +12539,7 @@
         <v>160</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>436</v>
@@ -12577,7 +12548,7 @@
         <v>427</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -12587,14 +12558,14 @@
         <v>161</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23" t="s">
         <v>428</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="F11" s="59"/>
       <c r="G11" s="22"/>
@@ -12606,14 +12577,14 @@
         <v>162</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="23" t="s">
         <v>429</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F12" s="59"/>
       <c r="G12" s="22"/>
@@ -12637,38 +12608,38 @@
     </row>
     <row r="14" spans="1:9" s="9" customFormat="1" ht="52">
       <c r="A14" s="22" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="F14" s="59"/>
       <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:9" s="19" customFormat="1" ht="65">
       <c r="A15" s="22" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>430</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -12692,19 +12663,19 @@
     </row>
     <row r="17" spans="1:9" s="20" customFormat="1" ht="65">
       <c r="A17" s="22" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>431</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="F17" s="59"/>
       <c r="G17" s="22"/>
@@ -12713,36 +12684,36 @@
     </row>
     <row r="18" spans="1:9" s="9" customFormat="1" ht="52">
       <c r="A18" s="22" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>432</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:9" s="19" customFormat="1" ht="65">
       <c r="A19" s="22" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="23" t="s">
         <v>437</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -12751,19 +12722,19 @@
     </row>
     <row r="20" spans="1:9" s="19" customFormat="1" ht="65">
       <c r="A20" s="22" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>433</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -12772,19 +12743,19 @@
     </row>
     <row r="21" spans="1:9" s="20" customFormat="1" ht="52">
       <c r="A21" s="22" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>434</v>
       </c>
       <c r="E21" s="23" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -12793,17 +12764,17 @@
     </row>
     <row r="22" spans="1:9" s="20" customFormat="1" ht="52">
       <c r="A22" s="22" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="23" t="s">
         <v>435</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -12827,19 +12798,19 @@
     </row>
     <row r="24" spans="1:9" s="20" customFormat="1" ht="156">
       <c r="A24" s="22" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -12860,7 +12831,7 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -12878,7 +12849,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="13" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -13012,12 +12983,12 @@
         <v>111</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -13042,12 +13013,12 @@
         <v>112</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -13059,12 +13030,12 @@
         <v>113</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -13091,12 +13062,12 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -13108,12 +13079,12 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -13125,12 +13096,12 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -13142,14 +13113,14 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="21" t="s">
         <v>438</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -13161,12 +13132,12 @@
         <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -13178,12 +13149,12 @@
         <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -13415,11 +13386,11 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H1:S1048576"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -13437,7 +13408,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -13652,12 +13623,12 @@
         <v>45</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -13678,12 +13649,12 @@
         <v>46</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
@@ -13720,14 +13691,14 @@
         <v>47</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -13748,12 +13719,12 @@
         <v>48</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -13774,12 +13745,12 @@
         <v>49</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -13792,12 +13763,12 @@
         <v>50</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -13810,12 +13781,12 @@
         <v>51</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -13860,14 +13831,14 @@
         <v>52</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="23" t="s">
         <v>439</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -14444,11 +14415,11 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H1:K1048576"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -14466,7 +14437,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="45"/>
@@ -14684,14 +14655,14 @@
         <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="21" t="s">
         <v>451</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -14712,14 +14683,14 @@
         <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="21" t="s">
         <v>452</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -14764,12 +14735,12 @@
         <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -14790,14 +14761,14 @@
         <v>102</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="21" t="s">
         <v>455</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -14818,7 +14789,7 @@
         <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>474</v>
@@ -14827,7 +14798,7 @@
         <v>473</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -14848,7 +14819,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>453</v>
@@ -14857,7 +14828,7 @@
         <v>456</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -14902,16 +14873,16 @@
         <v>105</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>454</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>774</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -14932,14 +14903,14 @@
         <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="21" t="s">
         <v>457</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -14960,14 +14931,14 @@
         <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="21" t="s">
         <v>458</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -14988,14 +14959,14 @@
         <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="21" t="s">
         <v>459</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -15472,8 +15443,8 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -15489,7 +15460,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -15696,12 +15667,12 @@
         <v>122</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -15744,12 +15715,12 @@
         <v>123</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -15770,12 +15741,12 @@
         <v>124</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -15785,14 +15756,14 @@
         <v>125</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>460</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -15802,12 +15773,12 @@
         <v>126</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -15850,14 +15821,14 @@
         <v>127</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>461</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -16558,53 +16529,53 @@
   <sheetData>
     <row r="1" spans="1:22" s="71" customFormat="1" ht="18.5">
       <c r="A1" s="71" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="93">
       <c r="A2" s="115" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C2" s="113" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="D2" s="113"/>
       <c r="E2" s="114" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="F2" s="114"/>
       <c r="G2" s="113" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="H2" s="113"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
       <c r="K2" s="114" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="L2" s="114"/>
       <c r="M2" s="114"/>
       <c r="N2" s="61" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="O2" s="62" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="P2" s="113" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="Q2" s="113"/>
       <c r="R2" s="113"/>
       <c r="S2" s="114" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="T2" s="114"/>
       <c r="U2" s="114"/>
       <c r="V2" s="63" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15.5">
@@ -16673,70 +16644,70 @@
     </row>
     <row r="4" spans="1:22" ht="15.5">
       <c r="A4" s="112" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="V4" s="69" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.5">
@@ -16745,61 +16716,61 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V5" s="69" t="s">
         <v>23</v>
@@ -16816,29 +16787,29 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="69" t="s">
@@ -16859,7 +16830,7 @@
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -16911,61 +16882,61 @@
         <v>5</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U9" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="V9" s="69"/>
     </row>
@@ -16975,61 +16946,61 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U10" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V10" s="69" t="s">
         <v>23</v>
@@ -17041,61 +17012,61 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U11" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V11" s="69" t="s">
         <v>23</v>
@@ -17107,51 +17078,51 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S12" s="70"/>
       <c r="T12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U12" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V12" s="69" t="s">
         <v>20</v>
@@ -17163,43 +17134,43 @@
         <v>2.4</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
       <c r="P13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U13" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V13" s="69" t="s">
         <v>21</v>
@@ -17214,32 +17185,32 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
       <c r="T14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V14" s="69"/>
     </row>
@@ -17252,30 +17223,30 @@
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
       <c r="M15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="V15" s="69"/>
     </row>
@@ -17299,7 +17270,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
@@ -17327,7 +17298,7 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
@@ -17343,58 +17314,58 @@
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T18" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="U18" s="70"/>
       <c r="V18" s="69"/>
@@ -17405,58 +17376,58 @@
         <v>3.1</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T19" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="U19" s="70"/>
       <c r="V19" s="69" t="s">
@@ -17469,49 +17440,49 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
       <c r="J20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="S20" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
@@ -17526,44 +17497,44 @@
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
       <c r="J21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R21" s="70"/>
       <c r="S21" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
@@ -17577,39 +17548,39 @@
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
       <c r="J22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="Q22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R22" s="70"/>
       <c r="S22" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
@@ -17623,35 +17594,35 @@
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="O23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
@@ -17665,27 +17636,27 @@
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
       <c r="E24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
@@ -17708,11 +17679,11 @@
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -17727,13 +17698,13 @@
     </row>
     <row r="26" spans="1:22" ht="15.5">
       <c r="A26" s="112" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
@@ -17743,21 +17714,21 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
       <c r="K26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="R26" s="70"/>
       <c r="S26" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
@@ -17769,7 +17740,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -17779,21 +17750,21 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
       <c r="K27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="R27" s="70"/>
       <c r="S27" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
@@ -17817,7 +17788,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
@@ -17825,7 +17796,7 @@
       <c r="Q28" s="70"/>
       <c r="R28" s="70"/>
       <c r="S28" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
@@ -17847,7 +17818,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
@@ -17875,7 +17846,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
@@ -17903,7 +17874,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
@@ -17933,7 +17904,7 @@
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
       <c r="M32" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
@@ -17941,7 +17912,7 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="68" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="T32" s="70"/>
       <c r="U32" s="70"/>
@@ -17963,7 +17934,7 @@
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N33" s="70"/>
       <c r="O33" s="70"/>
@@ -17971,7 +17942,7 @@
       <c r="Q33" s="70"/>
       <c r="R33" s="70"/>
       <c r="S33" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="T33" s="70"/>
       <c r="U33" s="70"/>
@@ -17993,7 +17964,7 @@
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
@@ -18021,7 +17992,7 @@
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
@@ -18097,7 +18068,7 @@
     </row>
     <row r="38" spans="1:22" s="76" customFormat="1" ht="23.5">
       <c r="A38" s="76" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="C38" s="77">
         <v>4</v>
@@ -18305,10 +18276,10 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:P1048576"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -18327,7 +18298,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="45"/>
@@ -18545,12 +18516,12 @@
         <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -18595,12 +18566,12 @@
         <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -18621,12 +18592,12 @@
         <v>197</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -18671,12 +18642,12 @@
         <v>198</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="23" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -18697,12 +18668,12 @@
         <v>199</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -18723,12 +18694,12 @@
         <v>200</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -18749,12 +18720,12 @@
         <v>201</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
@@ -18775,12 +18746,12 @@
         <v>202</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="23" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -19289,7 +19260,7 @@
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="L7" sqref="L7"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -19308,7 +19279,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -19523,12 +19494,12 @@
         <v>130</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -19549,12 +19520,12 @@
         <v>131</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -19599,12 +19570,12 @@
         <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -19625,12 +19596,12 @@
         <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -19651,12 +19622,12 @@
         <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -19677,12 +19648,12 @@
         <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -19703,12 +19674,12 @@
         <v>136</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -19729,12 +19700,12 @@
         <v>137</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -19755,12 +19726,12 @@
         <v>138</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -19781,12 +19752,12 @@
         <v>139</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -19831,12 +19802,12 @@
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
@@ -19857,12 +19828,12 @@
         <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="21" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="3"/>
@@ -19883,12 +19854,12 @@
         <v>142</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="21" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="3"/>
@@ -19909,12 +19880,12 @@
         <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="3"/>
@@ -19959,12 +19930,12 @@
         <v>144</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="21" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="3"/>
@@ -20358,7 +20329,7 @@
   </sheetPr>
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -20377,7 +20348,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -20592,12 +20563,12 @@
         <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -20642,12 +20613,12 @@
         <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -20668,12 +20639,12 @@
         <v>181</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -20694,12 +20665,12 @@
         <v>182</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -20720,12 +20691,12 @@
         <v>183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -20746,12 +20717,12 @@
         <v>184</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
@@ -20772,12 +20743,12 @@
         <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -20822,12 +20793,12 @@
         <v>186</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -20848,12 +20819,12 @@
         <v>187</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -20874,12 +20845,12 @@
         <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="21" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -20900,12 +20871,12 @@
         <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
@@ -20926,12 +20897,12 @@
         <v>190</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="21" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="3"/>
@@ -20952,12 +20923,12 @@
         <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="21" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="3"/>
@@ -20978,12 +20949,12 @@
         <v>192</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="3"/>
@@ -21335,7 +21306,7 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -21355,7 +21326,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -21573,12 +21544,12 @@
         <v>167</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -21621,12 +21592,12 @@
         <v>168</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -21647,12 +21618,12 @@
         <v>169</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -21673,12 +21644,12 @@
         <v>170</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -21699,12 +21670,12 @@
         <v>171</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -21725,12 +21696,12 @@
         <v>172</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -21751,12 +21722,12 @@
         <v>173</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -21801,12 +21772,12 @@
         <v>174</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -21827,12 +21798,12 @@
         <v>175</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -21853,12 +21824,12 @@
         <v>176</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="21" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -22547,7 +22518,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -22564,7 +22535,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -22782,12 +22753,12 @@
         <v>216</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -22830,19 +22801,17 @@
         <v>217</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>476</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -22858,19 +22827,17 @@
         <v>218</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>477</v>
-      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -22886,19 +22853,17 @@
         <v>219</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
       <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>478</v>
-      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -22938,19 +22903,17 @@
         <v>220</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="s">
-        <v>479</v>
-      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -22966,19 +22929,17 @@
         <v>221</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="14" t="s">
-        <v>480</v>
-      </c>
+      <c r="I17" s="14"/>
       <c r="J17" s="7"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -22994,12 +22955,12 @@
         <v>222</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -23020,12 +22981,12 @@
         <v>223</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -23046,12 +23007,12 @@
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -23072,19 +23033,17 @@
         <v>225</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
       <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>481</v>
-      </c>
+      <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -23767,7 +23726,7 @@
   </sheetPr>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -23785,7 +23744,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -24003,12 +23962,12 @@
         <v>228</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -24029,12 +23988,12 @@
         <v>229</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -24079,12 +24038,12 @@
         <v>230</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -24105,12 +24064,12 @@
         <v>231</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -24131,12 +24090,12 @@
         <v>232</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -24181,12 +24140,12 @@
         <v>233</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -24207,12 +24166,12 @@
         <v>234</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -24550,7 +24509,7 @@
   </sheetPr>
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -24568,7 +24527,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -24786,12 +24745,12 @@
         <v>204</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -24812,12 +24771,12 @@
         <v>205</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -24838,12 +24797,12 @@
         <v>206</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -24888,12 +24847,12 @@
         <v>207</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -24914,12 +24873,12 @@
         <v>208</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -24940,12 +24899,12 @@
         <v>209</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -24966,12 +24925,12 @@
         <v>210</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -25016,12 +24975,12 @@
         <v>211</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -25042,12 +25001,12 @@
         <v>212</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -25553,7 +25512,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="78" customFormat="1" ht="18.5">
       <c r="A1" s="78" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -25572,53 +25531,53 @@
     </row>
     <row r="2" spans="1:17" ht="68.150000000000006" customHeight="1">
       <c r="A2" s="115" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>475</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I2" s="80" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="65" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="L2" s="80" t="s">
         <v>475</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="N2" s="80" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="O2" s="80" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="P2" s="80" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -25670,7 +25629,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="112" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
@@ -25697,47 +25656,47 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J5" s="66"/>
       <c r="K5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q5" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -25832,47 +25791,47 @@
         <v>2.1</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J10" s="66"/>
       <c r="K10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q10" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -25881,47 +25840,47 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J11" s="66"/>
       <c r="K11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q11" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -25930,25 +25889,25 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I12" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J12" s="66"/>
       <c r="K12" s="67"/>
@@ -25965,25 +25924,25 @@
         <v>2.4</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J13" s="66"/>
       <c r="K13" s="67"/>
@@ -26107,47 +26066,47 @@
         <v>3.1</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J19" s="66"/>
       <c r="K19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q19" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -26156,47 +26115,47 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J20" s="66"/>
       <c r="K20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q20" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -26213,25 +26172,25 @@
       <c r="I21" s="67"/>
       <c r="J21" s="66"/>
       <c r="K21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="L21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="M21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="N21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="O21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="P21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="Q21" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -26320,7 +26279,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="112" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
@@ -26347,25 +26306,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
@@ -26731,13 +26690,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="B1" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="C1" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -26771,60 +26730,60 @@
   <sheetData>
     <row r="2" spans="1:17" ht="52">
       <c r="A2" s="84" t="s">
+        <v>964</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>965</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>966</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>967</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>968</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>969</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>971</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>972</v>
+      </c>
+      <c r="J2" s="85" t="s">
         <v>973</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>974</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>975</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>976</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>977</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>978</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>979</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>980</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>981</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>982</v>
       </c>
       <c r="K2" s="87" t="s">
         <v>337</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="O2" s="88" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="Q2" s="89" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="96" customFormat="1" ht="13">
       <c r="A3" s="90" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="B3" s="91" t="s">
         <v>7</v>
@@ -26847,13 +26806,13 @@
     </row>
     <row r="4" spans="1:17" s="99" customFormat="1" ht="51.5" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D4" s="116"/>
       <c r="E4" s="116"/>
@@ -26861,7 +26820,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="I4" s="4" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>339</v>
@@ -26878,13 +26837,13 @@
     </row>
     <row r="5" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A5" s="90" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="D5" s="118"/>
       <c r="E5" s="118"/>
@@ -26903,20 +26862,20 @@
     </row>
     <row r="6" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A6" s="90" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="120" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="D6" s="121"/>
       <c r="E6" s="121"/>
       <c r="F6" s="121"/>
       <c r="G6" s="122"/>
       <c r="H6" s="102" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="94"/>
@@ -26930,25 +26889,25 @@
     </row>
     <row r="7" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A7" s="103" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="H7" s="105"/>
       <c r="I7" s="94"/>
@@ -26969,13 +26928,13 @@
     </row>
     <row r="19" spans="1:17" ht="54.5" customHeight="1">
       <c r="A19" s="97" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="116" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D19" s="116"/>
       <c r="E19" s="116"/>
@@ -26983,7 +26942,7 @@
       <c r="G19" s="116"/>
       <c r="H19" s="116"/>
       <c r="I19" s="4" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>339</v>
@@ -27092,7 +27051,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="108" customFormat="1" ht="21">
       <c r="A1" s="107" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="108" customFormat="1" ht="21">
@@ -27102,10 +27061,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="109" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -27118,10 +27077,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="109" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -27134,55 +27093,55 @@
     </row>
     <row r="8" spans="1:17" s="111" customFormat="1" ht="52">
       <c r="A8" s="84" t="s">
+        <v>964</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>965</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>966</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>967</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>968</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>969</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>970</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>971</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>972</v>
+      </c>
+      <c r="J8" s="85" t="s">
         <v>973</v>
-      </c>
-      <c r="B8" s="85" t="s">
-        <v>974</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>975</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>976</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>977</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>978</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>979</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>980</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>981</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>982</v>
       </c>
       <c r="K8" s="87" t="s">
         <v>337</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="M8" s="85" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="N8" s="87" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="P8" s="87" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="Q8" s="89" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
@@ -27199,10 +27158,10 @@
   <dimension ref="A1:R58"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:M1048576"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -27222,7 +27181,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -27397,13 +27356,13 @@
         <v>251</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>463</v>
@@ -27448,16 +27407,16 @@
         <v>60</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>464</v>
@@ -27480,16 +27439,16 @@
         <v>61</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>345</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>465</v>
@@ -27512,7 +27471,7 @@
         <v>62</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>346</v>
@@ -27521,7 +27480,7 @@
         <v>347</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>470</v>
@@ -27544,16 +27503,16 @@
         <v>63</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>342</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>470</v>
@@ -27598,7 +27557,7 @@
         <v>64</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>343</v>
@@ -27630,7 +27589,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>348</v>
@@ -27682,7 +27641,7 @@
         <v>66</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>349</v>
@@ -28253,11 +28212,11 @@
   </sheetPr>
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:L1048576"/>
+      <selection pane="bottomRight" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -28275,7 +28234,7 @@
   <sheetData>
     <row r="1" spans="1:23" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -28458,16 +28417,16 @@
         <v>67</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -28520,16 +28479,16 @@
         <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
@@ -28557,7 +28516,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>353</v>
@@ -28566,7 +28525,7 @@
         <v>350</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -28619,19 +28578,19 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>351</v>
@@ -28658,16 +28617,16 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="36" t="s">
@@ -28695,16 +28654,16 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -29632,8 +29591,8 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -29651,7 +29610,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="7" customFormat="1" ht="26">
       <c r="A1" s="6" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="C1" s="8"/>
       <c r="G1" s="12"/>
@@ -29817,7 +29776,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>354</v>
@@ -29826,13 +29785,11 @@
         <v>355</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
-      <c r="I10" s="7" t="s">
-        <v>511</v>
-      </c>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:22" s="19" customFormat="1">
       <c r="A11" s="29" t="s">
@@ -29865,7 +29822,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>356</v>
@@ -29874,14 +29831,12 @@
         <v>357</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="7" t="s">
-        <v>512</v>
-      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -29901,7 +29856,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>358</v>
@@ -29910,7 +29865,7 @@
         <v>359</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -29935,7 +29890,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>360</v>
@@ -29944,22 +29899,20 @@
         <v>361</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="I14" s="7" t="s">
-        <v>513</v>
-      </c>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:22" s="9" customFormat="1" ht="104">
       <c r="A15" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>362</v>
@@ -29968,7 +29921,7 @@
         <v>363</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -29979,7 +29932,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>364</v>
@@ -29988,7 +29941,7 @@
         <v>365</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -30013,7 +29966,7 @@
         <v>44</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>366</v>
@@ -30022,7 +29975,7 @@
         <v>367</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -30777,6 +30730,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F513751AC33344AB32CFD2920EFE649" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="683516f7d70434a0e4dbd6c476be8d5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72e3a154-4955-46c3-9573-e9dec3e1f195" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf4a15c6a1eec5dbba94230cc6a50510" ns2:_="" ns3:_="">
     <xsd:import namespace="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
@@ -30987,15 +30949,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
   <ds:schemaRefs>
@@ -31014,6 +30967,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D16C1B0-D0CB-4A85-A729-6306D148B740}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31030,12 +30991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2021-04-12to04-16 (A5) C53517 SoftMARS/BASEfiles/60_07v01_BASE_QuestionsAndModel.xlsx
+++ b/2021-04-12to04-16 (A5) C53517 SoftMARS/BASEfiles/60_07v01_BASE_QuestionsAndModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PietervanZyl\Documents\GitHub\CMMITools\2021-04-12to04-16 (A5) C53517 SoftMARS\BASEfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9769556-5047-466A-ADE9-0D58F7AC6677}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9DE874-3725-448B-A5E9-FD215DD34C73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18870" yWindow="-13605" windowWidth="19455" windowHeight="11490" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="17" xr2:uid="{D66F76D2-5ED4-4763-9F91-DFFB43C68A4F}"/>
   </bookViews>
   <sheets>
     <sheet name="OpenClose" sheetId="40" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2017" uniqueCount="1020">
   <si>
     <t>CAR 3.2</t>
   </si>
@@ -2674,46 +2674,6 @@
 - DAR points specified within a process activity (for example select a supplier using a defined DAR approach)</t>
   </si>
   <si>
-    <t>- What alternatives decisions to you have to consider on your project?
-是否在执行的过程中定义和记录备选方案？
-- Do you (a process actor) define and record alternative options (in the process he/she execute)?</t>
-  </si>
-  <si>
-    <t>- What records of decision making do you keep (after decsions have been made)
-- Do you (a process actor) make and record the decisions on options selected (in the process he/she executes)? 
-是否根据所选备选方案在执行的过程中做出并记录决策？</t>
-  </si>
-  <si>
-    <t>- What guidliens do you have project manger have to guide criteria-based decision making?
-是否有一套规则来确定何时遵循已记录的基于准则的决策过程
-- Do you (a process actor) have a set of rules that determine when to follow a recorded process for criteria-based decision making?</t>
-  </si>
-  <si>
-    <t>- Can you describe how you develop criteria for the formal decisions you have taken on your project?
-在处理的这些DAR决策点上，您如何建立评价备选方案的准则？
-- At these DAR decision points (a process actor) of you process, how do you develop criteria for evaluating alternatives?</t>
-  </si>
-  <si>
-    <t>- At these formal project decision points, what alternatives have you identified?
-- At these DAR decision points, what alternatives have you identified?
-识别了哪些备选解决方案？</t>
-  </si>
-  <si>
-    <t>- Can you describe the evaluation methods you follow for these formal deicisons on your project?
-- At these DAR decision points, what evaluation methods for making a decision has been used?
-决策的评价方法有哪些</t>
-  </si>
-  <si>
-    <t>- Have you followed these methods and reocrded the results of deicions made using criteria?
-- At these DAR decision points, what decision have you made? Was this based on the alternatives, criteria and decision methods specified above?
-做了哪些决策？使用了哪些准则和评价方法来评价和选择解决方案?</t>
-  </si>
-  <si>
-    <t>- What role-based decision making guidelines or processess do you have in the organsaiton?
-- Explain role-based decision authority in your organisation?
-请针对基于角色的决策权威主体做相应描述</t>
-  </si>
-  <si>
     <t>MONITOR AND CONTROL</t>
   </si>
   <si>
@@ -3743,6 +3703,47 @@
   </si>
   <si>
     <t>Remind them of the confidentiality and non-attribution of the interview.</t>
+  </si>
+  <si>
+    <t>- What records of decision making do you keep (after decisions have been made)?
+- Do you (a process actor) make and record the decisions on options selected (in the process he/she executes)? 
+ 是否根据所选备选方案在执行的过程中做出并记录决策？</t>
+  </si>
+  <si>
+    <t>- Describe decisions you had to make on your project where you had to select from alternative options?
+ 是否在执行的过程中定义和记录备选方案？
+- Do you (a process actor) define and record alternative options (in the process he/she execute)?</t>
+  </si>
+  <si>
+    <t>- Do you (a process actor) have a set of rules that determine when to follow a recorded process for criteria-based decision making?
+ - What guidelines do you (process actor) have to guide criteria-based (or formalised) decision making?
+ 是否有一套规则来确定何时遵循已记录的基于准则的决策过程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- At these DAR decision points (a process actor) of your process, how do you develop criteria for evaluating alternatives?
+ - Can you describe how you develop criteria for the formal decisions you have taken on your project?
+ 在处理的这些DAR决策点上，您如何建立评价备选方案的准则？
+</t>
+  </si>
+  <si>
+    <t>- At these formal project decision points, what alternatives have you identified?
+ - At these DAR decision points, what alternatives have you identified?
+ 识别了哪些备选解决方案？</t>
+  </si>
+  <si>
+    <t>- Can you describe the evaluation methods you follow for these formal decisions on your project?
+ - At these DAR decision points, what evaluation methods for making a decision have been used?
+ 决策的评价方法有哪些</t>
+  </si>
+  <si>
+    <t>- Have you followed these methods and recorded the results of decisions made using criteria?
+ - At these DAR decision points, what decision have you made? Was this based on the alternatives, criteria and decision methods specified above?
+ 做了哪些决策？使用了哪些准则和评价方法来评价和选择解决方案?</t>
+  </si>
+  <si>
+    <t>- What role-based decision-making guidelines or processes do you have in the organisation?
+ - Explain role-based decision authority in your organisation?
+ 请针对基于角色的决策权威主体做相应描述</t>
   </si>
 </sst>
 </file>
@@ -4436,6 +4437,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4477,10 +4482,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6313,108 +6314,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7AA28D-0521-46F5-BE8B-9DA64F4C5175}">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="126"/>
+    <col min="1" max="16384" width="8.7265625" style="112"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="112" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" s="112" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="112" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="112" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="112" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="112" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="112" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="112" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="112" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="C3" s="126" t="s">
+    <row r="12" spans="2:3">
+      <c r="B12" s="112" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="C4" s="126" t="s">
+    <row r="13" spans="2:3">
+      <c r="C13" s="112" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
-      <c r="C5" s="126" t="s">
+    <row r="14" spans="2:3">
+      <c r="C14" s="113" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
-      <c r="C6" s="126" t="s">
+    <row r="15" spans="2:3">
+      <c r="C15" s="113" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
-      <c r="C7" s="126" t="s">
+    <row r="16" spans="2:3">
+      <c r="C16" s="112" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
-      <c r="C8" s="126" t="s">
+    <row r="17" spans="3:3">
+      <c r="C17" s="113" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
-      <c r="C9" s="126" t="s">
+    <row r="18" spans="3:3">
+      <c r="C18" s="113" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="C10" s="126" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" s="112" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="126" t="s">
+    <row r="20" spans="3:3">
+      <c r="C20" s="112" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="C13" s="126" t="s">
+    <row r="21" spans="3:3">
+      <c r="C21" s="112" t="s">
         <v>1011</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="C14" s="127" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="C15" s="127" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="C16" s="126" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="127" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" s="127" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="126" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" s="126" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" s="126" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -6669,7 +6670,7 @@
         <v>357</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -6703,7 +6704,7 @@
         <v>359</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -6737,7 +6738,7 @@
         <v>361</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>570</v>
@@ -6759,7 +6760,7 @@
         <v>363</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -6779,7 +6780,7 @@
         <v>365</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -7819,7 +7820,7 @@
         <v>371</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -7854,7 +7855,7 @@
         <v>373</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -7889,7 +7890,7 @@
         <v>375</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -9996,7 +9997,7 @@
       <c r="F21" s="23"/>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="91">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="78">
       <c r="A22" s="26" t="s">
         <v>16</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>440</v>
@@ -13073,12 +13074,12 @@
   </sheetPr>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C4" sqref="C4"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13"/>
@@ -13306,7 +13307,7 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
     </row>
-    <row r="10" spans="1:18" s="20" customFormat="1" ht="52">
+    <row r="10" spans="1:18" s="20" customFormat="1" ht="65">
       <c r="A10" s="22" t="s">
         <v>45</v>
       </c>
@@ -13316,7 +13317,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>737</v>
+        <v>1013</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -13342,7 +13343,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23" t="s">
-        <v>738</v>
+        <v>1012</v>
       </c>
       <c r="F11" s="23"/>
       <c r="G11" s="22"/>
@@ -13386,7 +13387,7 @@
         <v>736</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>739</v>
+        <v>1014</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -13402,7 +13403,7 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
     </row>
-    <row r="14" spans="1:18" s="20" customFormat="1" ht="65">
+    <row r="14" spans="1:18" s="20" customFormat="1" ht="78">
       <c r="A14" s="22" t="s">
         <v>48</v>
       </c>
@@ -13412,7 +13413,7 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>740</v>
+        <v>1015</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -13438,7 +13439,7 @@
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>741</v>
+        <v>1016</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -13456,7 +13457,7 @@
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="23" t="s">
-        <v>742</v>
+        <v>1017</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -13474,7 +13475,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>743</v>
+        <v>1018</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -13497,9 +13498,7 @@
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
-      <c r="E18" s="30" t="s">
-        <v>338</v>
-      </c>
+      <c r="E18" s="30"/>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="7"/>
@@ -13526,7 +13525,7 @@
         <v>439</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>744</v>
+        <v>1019</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -14125,7 +14124,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="45"/>
@@ -14343,14 +14342,14 @@
         <v>99</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="21" t="s">
         <v>451</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -14371,14 +14370,14 @@
         <v>100</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="21" t="s">
         <v>452</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -14423,12 +14422,12 @@
         <v>101</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -14449,14 +14448,14 @@
         <v>102</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="21" t="s">
         <v>455</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -14477,7 +14476,7 @@
         <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>474</v>
@@ -14486,7 +14485,7 @@
         <v>473</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -14507,7 +14506,7 @@
         <v>104</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>453</v>
@@ -14516,7 +14515,7 @@
         <v>456</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -14561,16 +14560,16 @@
         <v>105</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>454</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -14591,14 +14590,14 @@
         <v>106</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="21" t="s">
         <v>457</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -14619,14 +14618,14 @@
         <v>107</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="21" t="s">
         <v>458</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -14647,14 +14646,14 @@
         <v>108</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="21" t="s">
         <v>459</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -15140,54 +15139,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="93">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="117" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>929</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>930</v>
+      </c>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
+        <v>931</v>
+      </c>
+      <c r="F2" s="116"/>
+      <c r="G2" s="115" t="s">
+        <v>932</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116" t="s">
+        <v>933</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="61" t="s">
+        <v>934</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>935</v>
+      </c>
+      <c r="P2" s="115" t="s">
         <v>936</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="116" t="s">
         <v>937</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="63" t="s">
         <v>938</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
-        <v>939</v>
-      </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="113" t="s">
-        <v>940</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114" t="s">
-        <v>941</v>
-      </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="61" t="s">
-        <v>942</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>943</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>944</v>
-      </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114" t="s">
-        <v>945</v>
-      </c>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="63" t="s">
-        <v>946</v>
-      </c>
     </row>
     <row r="3" spans="1:22" ht="15.5">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="65" t="s">
         <v>332</v>
       </c>
@@ -15250,141 +15249,141 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.5">
-      <c r="A4" s="112" t="s">
-        <v>947</v>
+      <c r="A4" s="114" t="s">
+        <v>939</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="V4" s="69" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.5">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="66">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V5" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.5">
-      <c r="A6" s="112"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="66">
         <v>1.2</v>
       </c>
@@ -15394,29 +15393,29 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="69" t="s">
@@ -15424,7 +15423,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.5">
-      <c r="A7" s="112"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="66">
         <v>1.3</v>
       </c>
@@ -15437,7 +15436,7 @@
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -15454,7 +15453,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.5">
-      <c r="A8" s="112"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="66">
         <v>1.4</v>
       </c>
@@ -15482,309 +15481,309 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.5">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="114" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="V9" s="69"/>
     </row>
     <row r="10" spans="1:22" ht="15.5">
-      <c r="A10" s="112"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="66">
         <v>2.1</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V10" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.5">
-      <c r="A11" s="112"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="66">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V11" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.5">
-      <c r="A12" s="112"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="66">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S12" s="70"/>
       <c r="T12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V12" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.5">
-      <c r="A13" s="112"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="66">
         <v>2.4</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
       <c r="P13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V13" s="69" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.5">
-      <c r="A14" s="112"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="66">
         <v>2.5</v>
       </c>
@@ -15792,37 +15791,37 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
       <c r="T14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V14" s="69"/>
     </row>
     <row r="15" spans="1:22" ht="15.5">
-      <c r="A15" s="112"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="66">
         <v>2.6</v>
       </c>
@@ -15830,35 +15829,35 @@
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
       <c r="M15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V15" s="69"/>
     </row>
     <row r="16" spans="1:22" ht="15.5">
-      <c r="A16" s="112"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="66">
         <v>2.7</v>
       </c>
@@ -15877,7 +15876,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
@@ -15886,7 +15885,7 @@
       <c r="V16" s="69"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="66">
         <v>2.8</v>
       </c>
@@ -15905,7 +15904,7 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
@@ -15914,127 +15913,127 @@
       <c r="V17" s="69"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U18" s="70"/>
       <c r="V18" s="69"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="112"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="66">
         <v>3.1</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U19" s="70"/>
       <c r="V19" s="69" t="s">
@@ -16042,54 +16041,54 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="112"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="66">
         <v>3.2</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
       <c r="J20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
@@ -16098,172 +16097,172 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="112"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="66">
         <v>3.3</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
       <c r="J21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R21" s="70"/>
       <c r="S21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
       <c r="V21" s="69"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="112"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="66">
         <v>3.4</v>
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
       <c r="J22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R22" s="70"/>
       <c r="S22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
       <c r="V22" s="69"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="112"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="66">
         <v>3.5</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
       <c r="V23" s="69"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="112"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="66">
         <v>3.6</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
       <c r="E24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
@@ -16274,7 +16273,7 @@
       <c r="V24" s="69"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="112"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="66">
         <v>3.7</v>
       </c>
@@ -16286,11 +16285,11 @@
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -16304,14 +16303,14 @@
       <c r="V25" s="69"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="112" t="s">
-        <v>951</v>
+      <c r="A26" s="114" t="s">
+        <v>943</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
@@ -16321,33 +16320,33 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
       <c r="K26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R26" s="70"/>
       <c r="S26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
       <c r="V26" s="69"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="112"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="66">
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -16357,21 +16356,21 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
       <c r="K27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R27" s="70"/>
       <c r="S27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
@@ -16380,7 +16379,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="112"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="66">
         <v>4.2</v>
       </c>
@@ -16395,7 +16394,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
@@ -16403,14 +16402,14 @@
       <c r="Q28" s="70"/>
       <c r="R28" s="70"/>
       <c r="S28" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
       <c r="V28" s="69"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="112"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="66">
         <v>4.3</v>
       </c>
@@ -16425,7 +16424,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
@@ -16438,7 +16437,7 @@
       <c r="V29" s="69"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="112"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="66">
         <v>4.4000000000000004</v>
       </c>
@@ -16453,7 +16452,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
@@ -16466,7 +16465,7 @@
       <c r="V30" s="69"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="112"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="66">
         <v>4.5</v>
       </c>
@@ -16481,7 +16480,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
@@ -16494,7 +16493,7 @@
       <c r="V31" s="69"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="114" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -16511,7 +16510,7 @@
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
       <c r="M32" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
@@ -16519,14 +16518,14 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T32" s="70"/>
       <c r="U32" s="70"/>
       <c r="V32" s="69"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="112"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="66">
         <v>5.0999999999999996</v>
       </c>
@@ -16541,7 +16540,7 @@
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N33" s="70"/>
       <c r="O33" s="70"/>
@@ -16549,14 +16548,14 @@
       <c r="Q33" s="70"/>
       <c r="R33" s="70"/>
       <c r="S33" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T33" s="70"/>
       <c r="U33" s="70"/>
       <c r="V33" s="69"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="112"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="66">
         <v>5.2</v>
       </c>
@@ -16571,7 +16570,7 @@
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
@@ -16584,7 +16583,7 @@
       <c r="V34" s="69"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="112"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66">
         <v>5.3</v>
       </c>
@@ -16599,7 +16598,7 @@
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
@@ -16774,7 +16773,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="16" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -16981,12 +16980,12 @@
         <v>122</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -17029,12 +17028,12 @@
         <v>123</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="23" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -17055,12 +17054,12 @@
         <v>124</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
       <c r="E13" s="23" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -17070,14 +17069,14 @@
         <v>125</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>460</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="23" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="22"/>
@@ -17087,12 +17086,12 @@
         <v>126</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="23" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -17135,14 +17134,14 @@
         <v>127</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>461</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="23" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -17853,7 +17852,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="45"/>
@@ -18071,12 +18070,12 @@
         <v>195</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="23" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
@@ -18121,12 +18120,12 @@
         <v>196</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="23" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="22"/>
@@ -18147,12 +18146,12 @@
         <v>197</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="23" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="22"/>
@@ -18197,12 +18196,12 @@
         <v>198</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="23" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="22"/>
@@ -18223,12 +18222,12 @@
         <v>199</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="23" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="F16" s="23"/>
       <c r="G16" s="22"/>
@@ -18249,12 +18248,12 @@
         <v>200</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="23" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="F17" s="23"/>
       <c r="G17" s="22"/>
@@ -18275,12 +18274,12 @@
         <v>201</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="23" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="22"/>
@@ -18301,12 +18300,12 @@
         <v>202</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="23" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="F19" s="23"/>
       <c r="G19" s="22"/>
@@ -18834,7 +18833,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="13" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -19049,12 +19048,12 @@
         <v>130</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -19075,12 +19074,12 @@
         <v>131</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -19125,12 +19124,12 @@
         <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -19151,12 +19150,12 @@
         <v>133</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -19177,12 +19176,12 @@
         <v>134</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -19203,12 +19202,12 @@
         <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -19229,12 +19228,12 @@
         <v>136</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -19255,12 +19254,12 @@
         <v>137</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -19281,12 +19280,12 @@
         <v>138</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -19307,12 +19306,12 @@
         <v>139</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -19352,17 +19351,17 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" s="16" customFormat="1" ht="104">
+    <row r="22" spans="1:18" s="16" customFormat="1" ht="91">
       <c r="A22" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
@@ -19383,12 +19382,12 @@
         <v>141</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="21" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="3"/>
@@ -19409,12 +19408,12 @@
         <v>142</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="21" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="3"/>
@@ -19435,12 +19434,12 @@
         <v>143</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="3"/>
@@ -19485,12 +19484,12 @@
         <v>144</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="21" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="3"/>
@@ -19903,7 +19902,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -20118,12 +20117,12 @@
         <v>179</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -20168,12 +20167,12 @@
         <v>180</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -20194,12 +20193,12 @@
         <v>181</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -20220,12 +20219,12 @@
         <v>182</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -20246,12 +20245,12 @@
         <v>183</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -20272,12 +20271,12 @@
         <v>184</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="3"/>
@@ -20298,12 +20297,12 @@
         <v>185</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="3"/>
@@ -20348,12 +20347,12 @@
         <v>186</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -20374,12 +20373,12 @@
         <v>187</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -20400,12 +20399,12 @@
         <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="21" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -20426,12 +20425,12 @@
         <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="21" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="3"/>
@@ -20452,12 +20451,12 @@
         <v>190</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="21" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="3"/>
@@ -20478,12 +20477,12 @@
         <v>191</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="21" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="3"/>
@@ -20499,17 +20498,17 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" s="16" customFormat="1" ht="78">
+    <row r="25" spans="1:18" s="16" customFormat="1" ht="65">
       <c r="A25" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="21" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="3"/>
@@ -20881,7 +20880,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -21152,7 +21151,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -21178,7 +21177,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -21204,7 +21203,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -21230,7 +21229,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -21256,7 +21255,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -21282,7 +21281,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -21332,7 +21331,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -21358,7 +21357,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -21384,7 +21383,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="21" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="3"/>
@@ -22090,7 +22089,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -22308,12 +22307,12 @@
         <v>216</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -22356,12 +22355,12 @@
         <v>217</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -22382,12 +22381,12 @@
         <v>218</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -22408,12 +22407,12 @@
         <v>219</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -22458,12 +22457,12 @@
         <v>220</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -22479,17 +22478,17 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" s="16" customFormat="1" ht="65">
+    <row r="17" spans="1:18" s="16" customFormat="1" ht="52">
       <c r="A17" s="4" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -22505,17 +22504,17 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" ht="52">
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="39">
       <c r="A18" s="4" t="s">
         <v>222</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -22531,17 +22530,17 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" s="15" customFormat="1" ht="52">
+    <row r="19" spans="1:18" s="15" customFormat="1" ht="39">
       <c r="A19" s="4" t="s">
         <v>223</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -22562,12 +22561,12 @@
         <v>224</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -22588,12 +22587,12 @@
         <v>225</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="3"/>
@@ -23299,7 +23298,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -23517,12 +23516,12 @@
         <v>228</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -23543,12 +23542,12 @@
         <v>229</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -23593,12 +23592,12 @@
         <v>230</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="21" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="3"/>
@@ -23619,12 +23618,12 @@
         <v>231</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -23645,12 +23644,12 @@
         <v>232</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -23695,12 +23694,12 @@
         <v>233</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -23721,12 +23720,12 @@
         <v>234</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="21" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="3"/>
@@ -24082,7 +24081,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="15" customFormat="1" ht="26">
       <c r="A1" s="43" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="45"/>
@@ -24300,12 +24299,12 @@
         <v>204</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="21" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="3"/>
@@ -24326,12 +24325,12 @@
         <v>205</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="21" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="3"/>
@@ -24352,12 +24351,12 @@
         <v>206</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="21" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="3"/>
@@ -24402,12 +24401,12 @@
         <v>207</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="21" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="3"/>
@@ -24428,12 +24427,12 @@
         <v>208</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="21" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="3"/>
@@ -24454,12 +24453,12 @@
         <v>209</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="21" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="3"/>
@@ -24480,12 +24479,12 @@
         <v>210</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="21" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="3"/>
@@ -24530,12 +24529,12 @@
         <v>211</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="21" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="3"/>
@@ -24556,12 +24555,12 @@
         <v>212</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="21" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="3"/>
@@ -25065,58 +25064,58 @@
   <sheetData>
     <row r="1" spans="1:22" s="71" customFormat="1" ht="18.5">
       <c r="A1" s="71" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="93">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="117" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>929</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>930</v>
+      </c>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116" t="s">
+        <v>931</v>
+      </c>
+      <c r="F2" s="116"/>
+      <c r="G2" s="115" t="s">
+        <v>932</v>
+      </c>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116" t="s">
+        <v>933</v>
+      </c>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="61" t="s">
+        <v>934</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>935</v>
+      </c>
+      <c r="P2" s="115" t="s">
         <v>936</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="116" t="s">
         <v>937</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="63" t="s">
         <v>938</v>
       </c>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
-        <v>939</v>
-      </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="113" t="s">
-        <v>940</v>
-      </c>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114" t="s">
-        <v>941</v>
-      </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="61" t="s">
-        <v>942</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>943</v>
-      </c>
-      <c r="P2" s="113" t="s">
-        <v>944</v>
-      </c>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114" t="s">
-        <v>945</v>
-      </c>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="63" t="s">
-        <v>946</v>
-      </c>
     </row>
     <row r="3" spans="1:22" ht="15.5">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="65" t="s">
         <v>332</v>
       </c>
@@ -25179,141 +25178,141 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="15.5">
-      <c r="A4" s="112" t="s">
-        <v>947</v>
+      <c r="A4" s="114" t="s">
+        <v>939</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U4" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="V4" s="69" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="15.5">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="66">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U5" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V5" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.5">
-      <c r="A6" s="112"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="66">
         <v>1.2</v>
       </c>
@@ -25323,29 +25322,29 @@
       <c r="F6" s="70"/>
       <c r="G6" s="70"/>
       <c r="H6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
       <c r="K6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N6" s="70"/>
       <c r="O6" s="70"/>
       <c r="P6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="70"/>
       <c r="T6" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U6" s="70"/>
       <c r="V6" s="69" t="s">
@@ -25353,7 +25352,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.5">
-      <c r="A7" s="112"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="66">
         <v>1.3</v>
       </c>
@@ -25366,7 +25365,7 @@
       <c r="I7" s="70"/>
       <c r="J7" s="70"/>
       <c r="K7" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L7" s="70"/>
       <c r="M7" s="70"/>
@@ -25383,7 +25382,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="15.5">
-      <c r="A8" s="112"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="66">
         <v>1.4</v>
       </c>
@@ -25411,309 +25410,309 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15.5">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="114" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U9" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="V9" s="69"/>
     </row>
     <row r="10" spans="1:22" ht="15.5">
-      <c r="A10" s="112"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="66">
         <v>2.1</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U10" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V10" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.5">
-      <c r="A11" s="112"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="66">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U11" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V11" s="69" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.5">
-      <c r="A12" s="112"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="66">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K12" s="70"/>
       <c r="L12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N12" s="70"/>
       <c r="O12" s="70"/>
       <c r="P12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S12" s="70"/>
       <c r="T12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U12" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V12" s="69" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.5">
-      <c r="A13" s="112"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="66">
         <v>2.4</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D13" s="70"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K13" s="70"/>
       <c r="L13" s="70"/>
       <c r="M13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N13" s="70"/>
       <c r="O13" s="70"/>
       <c r="P13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R13" s="70"/>
       <c r="S13" s="70"/>
       <c r="T13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U13" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V13" s="69" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.5">
-      <c r="A14" s="112"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="66">
         <v>2.5</v>
       </c>
@@ -25721,37 +25720,37 @@
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K14" s="70"/>
       <c r="L14" s="70"/>
       <c r="M14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N14" s="70"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R14" s="70"/>
       <c r="S14" s="70"/>
       <c r="T14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U14" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V14" s="69"/>
     </row>
     <row r="15" spans="1:22" ht="15.5">
-      <c r="A15" s="112"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="66">
         <v>2.6</v>
       </c>
@@ -25759,35 +25758,35 @@
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
       <c r="F15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
       <c r="J15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K15" s="70"/>
       <c r="L15" s="70"/>
       <c r="M15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N15" s="70"/>
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R15" s="70"/>
       <c r="S15" s="70"/>
       <c r="T15" s="70"/>
       <c r="U15" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="V15" s="69"/>
     </row>
     <row r="16" spans="1:22" ht="15.5">
-      <c r="A16" s="112"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="66">
         <v>2.7</v>
       </c>
@@ -25806,7 +25805,7 @@
       <c r="O16" s="70"/>
       <c r="P16" s="70"/>
       <c r="Q16" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="70"/>
@@ -25815,7 +25814,7 @@
       <c r="V16" s="69"/>
     </row>
     <row r="17" spans="1:22" ht="15.5">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="66">
         <v>2.8</v>
       </c>
@@ -25834,7 +25833,7 @@
       <c r="O17" s="70"/>
       <c r="P17" s="70"/>
       <c r="Q17" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R17" s="70"/>
       <c r="S17" s="70"/>
@@ -25843,127 +25842,127 @@
       <c r="V17" s="69"/>
     </row>
     <row r="18" spans="1:22" ht="15.5">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="67" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="S18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T18" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="U18" s="70"/>
       <c r="V18" s="69"/>
     </row>
     <row r="19" spans="1:22" ht="15.5">
-      <c r="A19" s="112"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="66">
         <v>3.1</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="I19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="J19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T19" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="U19" s="70"/>
       <c r="V19" s="69" t="s">
@@ -25971,54 +25970,54 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="15.5">
-      <c r="A20" s="112"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="66">
         <v>3.2</v>
       </c>
       <c r="C20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
       <c r="J20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="S20" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T20" s="70"/>
       <c r="U20" s="70"/>
@@ -26027,172 +26026,172 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="15.5">
-      <c r="A21" s="112"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="66">
         <v>3.3</v>
       </c>
       <c r="C21" s="70"/>
       <c r="D21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="G21" s="70"/>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
       <c r="J21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R21" s="70"/>
       <c r="S21" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T21" s="70"/>
       <c r="U21" s="70"/>
       <c r="V21" s="69"/>
     </row>
     <row r="22" spans="1:22" ht="15.5">
-      <c r="A22" s="112"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="66">
         <v>3.4</v>
       </c>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
       <c r="E22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
       <c r="J22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="Q22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R22" s="70"/>
       <c r="S22" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T22" s="70"/>
       <c r="U22" s="70"/>
       <c r="V22" s="69"/>
     </row>
     <row r="23" spans="1:22" ht="15.5">
-      <c r="A23" s="112"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="66">
         <v>3.5</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
       <c r="J23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="O23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P23" s="70"/>
       <c r="Q23" s="70"/>
       <c r="R23" s="70"/>
       <c r="S23" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T23" s="70"/>
       <c r="U23" s="70"/>
       <c r="V23" s="69"/>
     </row>
     <row r="24" spans="1:22" ht="15.5">
-      <c r="A24" s="112"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="66">
         <v>3.6</v>
       </c>
       <c r="C24" s="70"/>
       <c r="D24" s="70"/>
       <c r="E24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70"/>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N24" s="70"/>
       <c r="O24" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="P24" s="70"/>
       <c r="Q24" s="70"/>
@@ -26203,7 +26202,7 @@
       <c r="V24" s="69"/>
     </row>
     <row r="25" spans="1:22" ht="15.5">
-      <c r="A25" s="112"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="66">
         <v>3.7</v>
       </c>
@@ -26215,11 +26214,11 @@
       <c r="H25" s="70"/>
       <c r="I25" s="70"/>
       <c r="J25" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="K25" s="70"/>
       <c r="L25" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
@@ -26233,14 +26232,14 @@
       <c r="V25" s="69"/>
     </row>
     <row r="26" spans="1:22" ht="15.5">
-      <c r="A26" s="112" t="s">
-        <v>951</v>
+      <c r="A26" s="114" t="s">
+        <v>943</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D26" s="70"/>
       <c r="E26" s="70"/>
@@ -26250,33 +26249,33 @@
       <c r="I26" s="70"/>
       <c r="J26" s="70"/>
       <c r="K26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L26" s="70"/>
       <c r="M26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="70"/>
       <c r="P26" s="70"/>
       <c r="Q26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="R26" s="70"/>
       <c r="S26" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T26" s="70"/>
       <c r="U26" s="70"/>
       <c r="V26" s="69"/>
     </row>
     <row r="27" spans="1:22" ht="15.5">
-      <c r="A27" s="112"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="66">
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D27" s="70"/>
       <c r="E27" s="70"/>
@@ -26286,21 +26285,21 @@
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
       <c r="K27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="L27" s="70"/>
       <c r="M27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N27" s="70"/>
       <c r="O27" s="70"/>
       <c r="P27" s="70"/>
       <c r="Q27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="R27" s="70"/>
       <c r="S27" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T27" s="70"/>
       <c r="U27" s="70"/>
@@ -26309,7 +26308,7 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.5">
-      <c r="A28" s="112"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="66">
         <v>4.2</v>
       </c>
@@ -26324,7 +26323,7 @@
       <c r="K28" s="70"/>
       <c r="L28" s="70"/>
       <c r="M28" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N28" s="70"/>
       <c r="O28" s="70"/>
@@ -26332,14 +26331,14 @@
       <c r="Q28" s="70"/>
       <c r="R28" s="70"/>
       <c r="S28" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T28" s="70"/>
       <c r="U28" s="70"/>
       <c r="V28" s="69"/>
     </row>
     <row r="29" spans="1:22" ht="15.5">
-      <c r="A29" s="112"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="66">
         <v>4.3</v>
       </c>
@@ -26354,7 +26353,7 @@
       <c r="K29" s="70"/>
       <c r="L29" s="70"/>
       <c r="M29" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N29" s="70"/>
       <c r="O29" s="70"/>
@@ -26367,7 +26366,7 @@
       <c r="V29" s="69"/>
     </row>
     <row r="30" spans="1:22" ht="15.5">
-      <c r="A30" s="112"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="66">
         <v>4.4000000000000004</v>
       </c>
@@ -26382,7 +26381,7 @@
       <c r="K30" s="70"/>
       <c r="L30" s="70"/>
       <c r="M30" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N30" s="70"/>
       <c r="O30" s="70"/>
@@ -26395,7 +26394,7 @@
       <c r="V30" s="69"/>
     </row>
     <row r="31" spans="1:22" ht="15.5">
-      <c r="A31" s="112"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="66">
         <v>4.5</v>
       </c>
@@ -26410,7 +26409,7 @@
       <c r="K31" s="70"/>
       <c r="L31" s="70"/>
       <c r="M31" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N31" s="70"/>
       <c r="O31" s="70"/>
@@ -26423,7 +26422,7 @@
       <c r="V31" s="69"/>
     </row>
     <row r="32" spans="1:22" ht="15.5">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="114" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -26440,7 +26439,7 @@
       <c r="K32" s="70"/>
       <c r="L32" s="70"/>
       <c r="M32" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N32" s="70"/>
       <c r="O32" s="70"/>
@@ -26448,14 +26447,14 @@
       <c r="Q32" s="70"/>
       <c r="R32" s="70"/>
       <c r="S32" s="68" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="T32" s="70"/>
       <c r="U32" s="70"/>
       <c r="V32" s="69"/>
     </row>
     <row r="33" spans="1:22" ht="15.5">
-      <c r="A33" s="112"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="66">
         <v>5.0999999999999996</v>
       </c>
@@ -26470,7 +26469,7 @@
       <c r="K33" s="70"/>
       <c r="L33" s="70"/>
       <c r="M33" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N33" s="70"/>
       <c r="O33" s="70"/>
@@ -26478,14 +26477,14 @@
       <c r="Q33" s="70"/>
       <c r="R33" s="70"/>
       <c r="S33" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="T33" s="70"/>
       <c r="U33" s="70"/>
       <c r="V33" s="69"/>
     </row>
     <row r="34" spans="1:22" ht="15.5">
-      <c r="A34" s="112"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="66">
         <v>5.2</v>
       </c>
@@ -26500,7 +26499,7 @@
       <c r="K34" s="70"/>
       <c r="L34" s="70"/>
       <c r="M34" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N34" s="70"/>
       <c r="O34" s="70"/>
@@ -26513,7 +26512,7 @@
       <c r="V34" s="69"/>
     </row>
     <row r="35" spans="1:22" ht="15.5">
-      <c r="A35" s="112"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66">
         <v>5.3</v>
       </c>
@@ -26528,7 +26527,7 @@
       <c r="K35" s="70"/>
       <c r="L35" s="70"/>
       <c r="M35" s="70" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="N35" s="70"/>
       <c r="O35" s="70"/>
@@ -26604,7 +26603,7 @@
     </row>
     <row r="38" spans="1:22" s="76" customFormat="1" ht="23.5">
       <c r="A38" s="76" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C38" s="77">
         <v>4</v>
@@ -26826,7 +26825,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="78" customFormat="1" ht="18.5">
       <c r="A1" s="78" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -26844,59 +26843,59 @@
       <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="68.150000000000006" customHeight="1">
-      <c r="A2" s="115" t="s">
-        <v>936</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>937</v>
+      <c r="A2" s="117" t="s">
+        <v>928</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>929</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D2" s="80" t="s">
         <v>475</v>
       </c>
       <c r="E2" s="80" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H2" s="80" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="I2" s="80" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="J2" s="66"/>
       <c r="K2" s="65" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="L2" s="80" t="s">
         <v>475</v>
       </c>
       <c r="M2" s="80" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="N2" s="80" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="O2" s="80" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="P2" s="80" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="Q2" s="80" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="65" t="s">
         <v>332</v>
       </c>
@@ -26942,8 +26941,8 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="112" t="s">
-        <v>947</v>
+      <c r="A4" s="114" t="s">
+        <v>939</v>
       </c>
       <c r="B4" s="67" t="s">
         <v>7</v>
@@ -26965,56 +26964,56 @@
       <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="112"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="66">
         <v>1.1000000000000001</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J5" s="66"/>
       <c r="K5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q5" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="112"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="66">
         <v>1.2</v>
       </c>
@@ -27035,7 +27034,7 @@
       <c r="Q6" s="67"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="112"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="66">
         <v>1.3</v>
       </c>
@@ -27056,7 +27055,7 @@
       <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="112"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="66">
         <v>1.4</v>
       </c>
@@ -27077,7 +27076,7 @@
       <c r="Q8" s="67"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="112" t="s">
+      <c r="A9" s="114" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -27100,128 +27099,128 @@
       <c r="Q9" s="81"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="112"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="66">
         <v>2.1</v>
       </c>
       <c r="C10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J10" s="66"/>
       <c r="K10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q10" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="112"/>
+      <c r="A11" s="114"/>
       <c r="B11" s="66">
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J11" s="66"/>
       <c r="K11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q11" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="112"/>
+      <c r="A12" s="114"/>
       <c r="B12" s="66">
         <v>2.2999999999999998</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I12" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J12" s="66"/>
       <c r="K12" s="67"/>
@@ -27233,30 +27232,30 @@
       <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="112"/>
+      <c r="A13" s="114"/>
       <c r="B13" s="66">
         <v>2.4</v>
       </c>
       <c r="C13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I13" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J13" s="66"/>
       <c r="K13" s="67"/>
@@ -27268,7 +27267,7 @@
       <c r="Q13" s="67"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="112"/>
+      <c r="A14" s="114"/>
       <c r="B14" s="66">
         <v>2.5</v>
       </c>
@@ -27289,7 +27288,7 @@
       <c r="Q14" s="67"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="112"/>
+      <c r="A15" s="114"/>
       <c r="B15" s="66">
         <v>2.6</v>
       </c>
@@ -27310,7 +27309,7 @@
       <c r="Q15" s="67"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="112"/>
+      <c r="A16" s="114"/>
       <c r="B16" s="66">
         <v>2.7</v>
       </c>
@@ -27331,7 +27330,7 @@
       <c r="Q16" s="67"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="112"/>
+      <c r="A17" s="114"/>
       <c r="B17" s="66">
         <v>2.8</v>
       </c>
@@ -27352,7 +27351,7 @@
       <c r="Q17" s="67"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="67" t="s">
@@ -27375,105 +27374,105 @@
       <c r="Q18" s="81"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="112"/>
+      <c r="A19" s="114"/>
       <c r="B19" s="66">
         <v>3.1</v>
       </c>
       <c r="C19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J19" s="66"/>
       <c r="K19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q19" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="112"/>
+      <c r="A20" s="114"/>
       <c r="B20" s="66">
         <v>3.2</v>
       </c>
       <c r="C20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J20" s="66"/>
       <c r="K20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q20" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="112"/>
+      <c r="A21" s="114"/>
       <c r="B21" s="66">
         <v>3.3</v>
       </c>
@@ -27486,29 +27485,29 @@
       <c r="I21" s="67"/>
       <c r="J21" s="66"/>
       <c r="K21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="L21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="M21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="N21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="O21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="P21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="Q21" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="112"/>
+      <c r="A22" s="114"/>
       <c r="B22" s="66">
         <v>3.4</v>
       </c>
@@ -27529,7 +27528,7 @@
       <c r="Q22" s="67"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="112"/>
+      <c r="A23" s="114"/>
       <c r="B23" s="66">
         <v>3.5</v>
       </c>
@@ -27550,7 +27549,7 @@
       <c r="Q23" s="67"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="112"/>
+      <c r="A24" s="114"/>
       <c r="B24" s="66">
         <v>3.6</v>
       </c>
@@ -27571,7 +27570,7 @@
       <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="112"/>
+      <c r="A25" s="114"/>
       <c r="B25" s="66">
         <v>3.7</v>
       </c>
@@ -27592,8 +27591,8 @@
       <c r="Q25" s="67"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="112" t="s">
-        <v>951</v>
+      <c r="A26" s="114" t="s">
+        <v>943</v>
       </c>
       <c r="B26" s="67" t="s">
         <v>14</v>
@@ -27615,30 +27614,30 @@
       <c r="Q26" s="81"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="112"/>
+      <c r="A27" s="114"/>
       <c r="B27" s="66">
         <v>4.0999999999999996</v>
       </c>
       <c r="C27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="E27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="G27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="H27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="I27" s="81" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="J27" s="66"/>
       <c r="K27" s="67"/>
@@ -27650,7 +27649,7 @@
       <c r="Q27" s="67"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="112"/>
+      <c r="A28" s="114"/>
       <c r="B28" s="66">
         <v>4.2</v>
       </c>
@@ -27671,7 +27670,7 @@
       <c r="Q28" s="67"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="112"/>
+      <c r="A29" s="114"/>
       <c r="B29" s="66">
         <v>4.3</v>
       </c>
@@ -27692,7 +27691,7 @@
       <c r="Q29" s="67"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="112"/>
+      <c r="A30" s="114"/>
       <c r="B30" s="66">
         <v>4.4000000000000004</v>
       </c>
@@ -27713,7 +27712,7 @@
       <c r="Q30" s="67"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="112"/>
+      <c r="A31" s="114"/>
       <c r="B31" s="66">
         <v>4.5</v>
       </c>
@@ -27734,7 +27733,7 @@
       <c r="Q31" s="67"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="112" t="s">
+      <c r="A32" s="114" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="67" t="s">
@@ -27757,7 +27756,7 @@
       <c r="Q32" s="67"/>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="112"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="66">
         <v>5.0999999999999996</v>
       </c>
@@ -27778,7 +27777,7 @@
       <c r="Q33" s="67"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="112"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="66">
         <v>5.2</v>
       </c>
@@ -27799,7 +27798,7 @@
       <c r="Q34" s="67"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="112"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66">
         <v>5.3</v>
       </c>
@@ -28004,13 +28003,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B1" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="C1" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
   </sheetData>
@@ -28044,60 +28043,60 @@
   <sheetData>
     <row r="2" spans="1:17" ht="52">
       <c r="A2" s="84" t="s">
+        <v>956</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>959</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>960</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>961</v>
+      </c>
+      <c r="G2" s="86" t="s">
+        <v>962</v>
+      </c>
+      <c r="H2" s="87" t="s">
+        <v>963</v>
+      </c>
+      <c r="I2" s="85" t="s">
         <v>964</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="J2" s="85" t="s">
         <v>965</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>966</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>967</v>
-      </c>
-      <c r="E2" s="86" t="s">
-        <v>968</v>
-      </c>
-      <c r="F2" s="86" t="s">
-        <v>969</v>
-      </c>
-      <c r="G2" s="86" t="s">
-        <v>970</v>
-      </c>
-      <c r="H2" s="87" t="s">
-        <v>971</v>
-      </c>
-      <c r="I2" s="85" t="s">
-        <v>972</v>
-      </c>
-      <c r="J2" s="85" t="s">
-        <v>973</v>
       </c>
       <c r="K2" s="87" t="s">
         <v>337</v>
       </c>
       <c r="L2" s="85" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="M2" s="85" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="N2" s="87" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="O2" s="88" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="Q2" s="89" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="96" customFormat="1" ht="13">
       <c r="A3" s="90" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B3" s="91" t="s">
         <v>7</v>
@@ -28120,21 +28119,21 @@
     </row>
     <row r="4" spans="1:17" s="99" customFormat="1" ht="51.5" customHeight="1">
       <c r="A4" s="97" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="116" t="s">
-        <v>982</v>
-      </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
+      <c r="C4" s="118" t="s">
+        <v>974</v>
+      </c>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
       <c r="I4" s="4" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>339</v>
@@ -28151,22 +28150,22 @@
     </row>
     <row r="5" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A5" s="90" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="117" t="s">
-        <v>985</v>
-      </c>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="119"/>
+      <c r="C5" s="119" t="s">
+        <v>977</v>
+      </c>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="121"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="94"/>
@@ -28176,20 +28175,20 @@
     </row>
     <row r="6" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A6" s="90" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B6" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="120" t="s">
-        <v>987</v>
-      </c>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="122"/>
+      <c r="C6" s="122" t="s">
+        <v>979</v>
+      </c>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="102" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="I6" s="94"/>
       <c r="J6" s="94"/>
@@ -28203,25 +28202,25 @@
     </row>
     <row r="7" spans="1:17" s="100" customFormat="1" ht="13">
       <c r="A7" s="103" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B7" s="103" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="H7" s="105"/>
       <c r="I7" s="94"/>
@@ -28242,21 +28241,21 @@
     </row>
     <row r="19" spans="1:17" ht="54.5" customHeight="1">
       <c r="A19" s="97" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="116" t="s">
-        <v>982</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
+      <c r="C19" s="118" t="s">
+        <v>974</v>
+      </c>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="4" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>339</v>
@@ -28267,9 +28266,9 @@
       <c r="L19" s="98"/>
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -28365,7 +28364,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="108" customFormat="1" ht="21">
       <c r="A1" s="107" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="108" customFormat="1" ht="21">
@@ -28375,10 +28374,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="109" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B3" s="110" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -28391,10 +28390,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="109" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -28407,55 +28406,55 @@
     </row>
     <row r="8" spans="1:17" s="111" customFormat="1" ht="52">
       <c r="A8" s="84" t="s">
+        <v>956</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>957</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>958</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>959</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>960</v>
+      </c>
+      <c r="F8" s="86" t="s">
+        <v>961</v>
+      </c>
+      <c r="G8" s="86" t="s">
+        <v>962</v>
+      </c>
+      <c r="H8" s="87" t="s">
+        <v>963</v>
+      </c>
+      <c r="I8" s="85" t="s">
         <v>964</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="J8" s="85" t="s">
         <v>965</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>966</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>967</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>968</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>969</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>970</v>
-      </c>
-      <c r="H8" s="87" t="s">
-        <v>971</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>972</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>973</v>
       </c>
       <c r="K8" s="87" t="s">
         <v>337</v>
       </c>
       <c r="L8" s="85" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="M8" s="85" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="N8" s="87" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="O8" s="88" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="P8" s="87" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="Q8" s="89" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -28676,7 +28675,7 @@
         <v>554</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>463</v>
@@ -28730,7 +28729,7 @@
         <v>556</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>464</v>
@@ -28762,7 +28761,7 @@
         <v>522</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>465</v>
@@ -28794,7 +28793,7 @@
         <v>347</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>470</v>
@@ -28826,7 +28825,7 @@
         <v>342</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>470</v>
@@ -30899,6 +30898,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F513751AC33344AB32CFD2920EFE649" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="683516f7d70434a0e4dbd6c476be8d5b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72e3a154-4955-46c3-9573-e9dec3e1f195" xmlns:ns3="ec500478-62e0-46fc-87f1-cfa988e486b4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cf4a15c6a1eec5dbba94230cc6a50510" ns2:_="" ns3:_="">
     <xsd:import namespace="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
@@ -31109,22 +31123,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D16C1B0-D0CB-4A85-A729-6306D148B740}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31141,29 +31165,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50C3019A-A66F-442E-9D7D-BA1B50D45000}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E62027D-9E79-4187-A185-6768E3BCB4A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72e3a154-4955-46c3-9573-e9dec3e1f195"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ec500478-62e0-46fc-87f1-cfa988e486b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>